--- a/biology/Botanique/William_Curtis/William_Curtis.xlsx
+++ b/biology/Botanique/William_Curtis/William_Curtis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Curtis est un botaniste britannique, né le 11 janvier 1746 à Alton (Hampshire) et mort le 7 juillet 1799 à Brompton.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pharmacien de formation, il est démonstrateur de botanique dans des écoles de médecine. Il est le créateur du jardin botanique de Lambeth Marsh ainsi que celui de Brompton.
 Il crée la revue The Botanical Magazine en 1787. Il est fait membre de la Royal Society.
